--- a/スケジュール表.xlsx
+++ b/スケジュール表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takumi\Desktop\GC1,C言語,C++\GameB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takumi\Desktop\GC1,C言語,C++\GameB\GameB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>スケジュール表</t>
     <rPh sb="6" eb="7">
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Bullet</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -96,14 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mob</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PlayerAttack</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -127,10 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -145,16 +129,139 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>下移動</t>
     <rPh sb="0" eb="3">
       <t>シタイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オートまたはマウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemyBoss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemyMob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Playerに合わせて上下左右</t>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ジョウゲサユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Game1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間差表示</t>
+    <rPh sb="0" eb="5">
+      <t>ジカンサヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動のちに消滅</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUSH　Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUSH　X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→Easy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→Normal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -163,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +286,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,8 +324,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -497,105 +622,204 @@
     <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/スケジュール表.xlsx
+++ b/スケジュール表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>スケジュール表</t>
     <rPh sb="6" eb="7">
@@ -248,10 +248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>→Normal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未定</t>
     <rPh sb="0" eb="2">
       <t>ミテイ</t>
@@ -262,6 +258,58 @@
     <t>背景</t>
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少女の姿</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジョ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tutorial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぬいぐるみ系が良い</t>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→Hard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊び</t>
+    <rPh sb="0" eb="1">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少年の後ろ姿</t>
+    <rPh sb="0" eb="2">
+      <t>ショウネン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スガタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -270,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +338,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -324,12 +381,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -622,25 +685,28 @@
     <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -648,7 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -656,7 +722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -666,8 +732,11 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -677,8 +746,11 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -689,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -697,7 +769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -705,7 +777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -713,10 +785,13 @@
         <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -726,21 +801,27 @@
       <c r="D13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -819,7 +900,7 @@
         <v>31</v>
       </c>
       <c r="D23">
-        <v>5000</v>
+        <v>5300</v>
       </c>
     </row>
   </sheetData>
